--- a/posesiones/1486005.xlsx
+++ b/posesiones/1486005.xlsx
@@ -1859,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>21</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>16</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>36</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>4</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>5</v>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>26</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R23">
         <v>8</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R30">
         <v>24</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3294,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R32">
         <v>17</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3394,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R34">
         <v>11</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R36">
         <v>11</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3647,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R39">
         <v>22</v>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R45">
         <v>30</v>
@@ -3994,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R46">
         <v>17</v>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4144,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R49">
         <v>15</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4291,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4341,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R53">
         <v>12</v>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4541,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R57">
         <v>11</v>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4644,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R59">
         <v>12</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R61">
         <v>20</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R63">
         <v>23</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R66">
         <v>18</v>
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R67">
         <v>18</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R71">
         <v>9</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5400,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R74">
         <v>9</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R76">
         <v>11</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5606,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R78">
         <v>11</v>
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5709,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R80">
         <v>7</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6185,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R90">
         <v>16</v>
@@ -6238,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R91">
         <v>16</v>
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6338,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R93">
         <v>5</v>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6626,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R100">
         <v>21</v>
@@ -6732,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R101">
         <v>17</v>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6835,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R103">
         <v>16</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6938,7 +6938,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R105">
         <v>9</v>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7367,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7417,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R115">
         <v>23</v>
@@ -7467,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7514,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7608,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R122">
         <v>32</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7899,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7996,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R127">
         <v>17</v>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8099,7 +8099,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R129">
         <v>2</v>
@@ -8152,7 +8152,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R130">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8334,10 +8334,10 @@
         <v>1</v>
       </c>
       <c r="P134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8484,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R137">
         <v>21</v>
@@ -8537,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R138">
         <v>17</v>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R140">
         <v>18</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8740,7 +8740,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R142">
         <v>15</v>
@@ -8793,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8843,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R144">
         <v>4</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8943,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R146">
         <v>5</v>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9275,7 +9275,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R153">
         <v>20</v>
@@ -9325,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9375,7 +9375,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R155">
         <v>9</v>
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9519,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9660,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9707,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9757,7 +9757,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R163">
         <v>5</v>
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9860,7 +9860,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R165">
         <v>10</v>
@@ -9910,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10007,7 +10007,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R168">
         <v>0</v>
@@ -10060,7 +10060,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R169">
         <v>13</v>
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R170">
         <v>24</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10257,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10304,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10354,7 +10354,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R175">
         <v>18</v>
@@ -10407,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10457,7 +10457,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R177">
         <v>23</v>
@@ -10510,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10560,7 +10560,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R179">
         <v>14</v>
@@ -10610,7 +10610,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10660,7 +10660,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R181">
         <v>18</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10857,7 +10857,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10957,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R187">
         <v>16</v>
@@ -11004,7 +11004,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R189">
         <v>3</v>
@@ -11104,7 +11104,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R191">
         <v>4</v>
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11298,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11345,7 +11345,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R195">
         <v>17</v>
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11445,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11495,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R198">
         <v>16</v>
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R199">
         <v>16</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11645,7 +11645,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11695,7 +11695,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R202">
         <v>11</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11798,7 +11798,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R204">
         <v>14</v>
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11992,7 +11992,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12039,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12089,7 +12089,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R210">
         <v>37</v>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12189,7 +12189,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12236,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12286,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R214">
         <v>15</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12389,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R216">
         <v>14</v>
@@ -12439,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12489,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R218">
         <v>4</v>
@@ -12539,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12583,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12633,7 +12633,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R221">
         <v>13</v>
@@ -12683,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12733,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R223">
         <v>19</v>
@@ -12783,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12830,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12924,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12971,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13021,7 +13021,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R229">
         <v>0</v>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R231">
         <v>19</v>
@@ -13174,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13221,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13268,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13362,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13412,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R237">
         <v>37</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13509,7 +13509,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13559,7 +13559,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R240">
         <v>26</v>
@@ -13609,7 +13609,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13659,7 +13659,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R242">
         <v>5</v>
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13759,7 +13759,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R244">
         <v>7</v>
@@ -13809,7 +13809,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13903,7 +13903,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R247">
         <v>18</v>
@@ -13956,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14006,7 +14006,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R249">
         <v>17</v>
@@ -14059,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R250">
         <v>20</v>
@@ -14109,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14156,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14203,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14250,7 +14250,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14297,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14347,7 +14347,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R256">
         <v>18</v>
@@ -14403,7 +14403,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R257">
         <v>0</v>
@@ -14447,10 +14447,10 @@
         <v>1</v>
       </c>
       <c r="P258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q258">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14497,7 +14497,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14544,7 +14544,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14591,7 +14591,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14638,7 +14638,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14732,7 +14732,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14779,7 +14779,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14826,7 +14826,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14873,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14920,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14961,10 +14961,10 @@
         <v>1</v>
       </c>
       <c r="P269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q269">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15014,7 +15014,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R270">
         <v>17</v>
@@ -15064,7 +15064,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15114,7 +15114,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R272">
         <v>11</v>
@@ -15164,7 +15164,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15214,7 +15214,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R274">
         <v>21</v>
@@ -15267,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15314,7 +15314,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15408,7 +15408,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15502,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15552,7 +15552,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15646,7 +15646,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15693,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15787,7 +15787,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15834,7 +15834,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15884,7 +15884,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R288">
         <v>23</v>
@@ -15937,7 +15937,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15987,7 +15987,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R290">
         <v>11</v>
@@ -16040,7 +16040,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16090,7 +16090,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R292">
         <v>5</v>
@@ -16140,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16187,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16234,7 +16234,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16281,7 +16281,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R297">
         <v>25</v>
@@ -16381,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16428,7 +16428,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16478,7 +16478,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R300">
         <v>23</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R301">
         <v>13</v>
@@ -16581,7 +16581,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16628,7 +16628,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16675,7 +16675,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16725,7 +16725,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R305">
         <v>10</v>
@@ -16778,7 +16778,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R306">
         <v>20</v>
@@ -16831,7 +16831,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16881,7 +16881,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R308">
         <v>14</v>
@@ -16928,7 +16928,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16975,7 +16975,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17072,7 +17072,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R312">
         <v>19</v>
@@ -17122,7 +17122,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17169,7 +17169,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17216,7 +17216,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17263,7 +17263,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17310,7 +17310,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17360,7 +17360,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R318">
         <v>14</v>
@@ -17413,7 +17413,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R319">
         <v>12</v>
@@ -17466,7 +17466,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R320">
         <v>16</v>
@@ -17516,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17566,7 +17566,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R322">
         <v>28</v>
@@ -17619,7 +17619,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17669,7 +17669,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R324">
         <v>9</v>
@@ -17719,7 +17719,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17766,7 +17766,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17860,7 +17860,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17907,7 +17907,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17954,7 +17954,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18001,7 +18001,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R331">
         <v>39</v>
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18098,7 +18098,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18145,7 +18145,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18192,7 +18192,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18239,7 +18239,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18286,7 +18286,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18336,7 +18336,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R338">
         <v>13</v>
@@ -18386,7 +18386,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18433,7 +18433,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18480,7 +18480,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18574,7 +18574,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R343">
         <v>30</v>
@@ -18624,7 +18624,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18674,7 +18674,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18721,7 +18721,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18771,7 +18771,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18821,7 +18821,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R348">
         <v>35</v>
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18918,7 +18918,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18965,7 +18965,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19015,7 +19015,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R352">
         <v>10</v>
@@ -19068,7 +19068,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R353">
         <v>12</v>
@@ -19118,7 +19118,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19168,7 +19168,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R355">
         <v>13</v>
@@ -19221,7 +19221,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R356">
         <v>16</v>
@@ -19271,7 +19271,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19318,7 +19318,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19365,7 +19365,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19412,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19459,7 +19459,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19509,7 +19509,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R362">
         <v>19</v>
@@ -19559,7 +19559,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19609,7 +19609,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R364">
         <v>21</v>
@@ -19662,7 +19662,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R365">
         <v>20</v>
@@ -19715,7 +19715,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19762,7 +19762,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19809,7 +19809,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19856,7 +19856,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19906,7 +19906,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R370">
         <v>12</v>
@@ -19959,7 +19959,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20006,7 +20006,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20053,7 +20053,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20100,7 +20100,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20147,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20241,7 +20241,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20291,7 +20291,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R378">
         <v>12</v>
@@ -20341,7 +20341,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20388,7 +20388,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20435,7 +20435,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20482,7 +20482,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20532,7 +20532,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R383">
         <v>13</v>
@@ -20582,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20632,7 +20632,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R385">
         <v>26</v>
@@ -20682,7 +20682,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20729,7 +20729,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20776,7 +20776,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20823,7 +20823,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20873,7 +20873,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R390">
         <v>15</v>
@@ -20929,7 +20929,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R391">
         <v>0</v>
@@ -20973,10 +20973,10 @@
         <v>1</v>
       </c>
       <c r="P392" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q392">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21023,7 +21023,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21070,7 +21070,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21117,7 +21117,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21164,7 +21164,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21211,7 +21211,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21258,7 +21258,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21299,10 +21299,10 @@
         <v>1</v>
       </c>
       <c r="P399" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q399">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21352,7 +21352,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R400">
         <v>9</v>
@@ -21405,7 +21405,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21455,7 +21455,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R402">
         <v>24</v>
@@ -21508,7 +21508,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21558,7 +21558,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R404">
         <v>23</v>
@@ -21608,7 +21608,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21658,7 +21658,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R406">
         <v>24</v>
@@ -21711,7 +21711,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R407">
         <v>26</v>
@@ -21764,7 +21764,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21814,7 +21814,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R409">
         <v>15</v>
@@ -21861,7 +21861,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21908,7 +21908,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21955,7 +21955,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22002,7 +22002,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22049,7 +22049,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22096,7 +22096,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22143,7 +22143,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22190,7 +22190,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22240,7 +22240,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R418">
         <v>18</v>
@@ -22293,7 +22293,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R419">
         <v>12</v>
@@ -22343,7 +22343,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22390,7 +22390,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22440,7 +22440,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22490,7 +22490,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R423">
         <v>14</v>
@@ -22540,7 +22540,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22587,7 +22587,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22634,7 +22634,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22681,7 +22681,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22728,7 +22728,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22775,7 +22775,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22825,7 +22825,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R430">
         <v>7</v>
@@ -22878,7 +22878,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R431">
         <v>16</v>
@@ -22928,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22978,7 +22978,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R433">
         <v>7</v>
@@ -23031,7 +23031,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23081,7 +23081,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R435">
         <v>19</v>
@@ -23134,7 +23134,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23228,7 +23228,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23322,7 +23322,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23369,7 +23369,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23419,7 +23419,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R442">
         <v>10</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23516,7 +23516,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23566,7 +23566,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R445">
         <v>21</v>
@@ -23616,7 +23616,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23666,7 +23666,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R447">
         <v>18</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23766,7 +23766,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23860,7 +23860,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23960,7 +23960,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R453">
         <v>19</v>
@@ -24007,7 +24007,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24054,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24151,7 +24151,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R457">
         <v>6</v>
@@ -24204,7 +24204,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R458">
         <v>15</v>
@@ -24257,7 +24257,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R459">
         <v>13</v>
@@ -24310,7 +24310,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24360,7 +24360,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R461">
         <v>13</v>
@@ -24413,7 +24413,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24463,7 +24463,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R463">
         <v>8</v>
@@ -24516,7 +24516,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24566,7 +24566,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R465">
         <v>14</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24713,7 +24713,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R468">
         <v>13</v>
@@ -24763,7 +24763,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24810,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24860,7 +24860,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24907,7 +24907,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24954,7 +24954,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25048,7 +25048,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25142,7 +25142,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25189,7 +25189,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25239,7 +25239,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R479">
         <v>24</v>
@@ -25292,7 +25292,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R480">
         <v>16</v>
@@ -25345,7 +25345,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25392,7 +25392,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25489,7 +25489,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R484">
         <v>24</v>
@@ -25542,7 +25542,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25592,7 +25592,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R486">
         <v>5</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25689,7 +25689,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25736,7 +25736,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25783,7 +25783,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25927,7 +25927,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R493">
         <v>39</v>
@@ -25977,7 +25977,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26021,7 +26021,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26115,7 +26115,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26162,7 +26162,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26209,7 +26209,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26256,7 +26256,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26306,7 +26306,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R501">
         <v>24</v>
@@ -26359,7 +26359,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R502">
         <v>19</v>
@@ -26409,7 +26409,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26459,7 +26459,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26509,7 +26509,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R505">
         <v>6</v>
@@ -26559,7 +26559,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26609,7 +26609,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R507">
         <v>21</v>
@@ -26659,7 +26659,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26709,7 +26709,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R509">
         <v>18</v>
@@ -26762,7 +26762,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R510">
         <v>19</v>
@@ -26815,7 +26815,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R511">
         <v>4</v>
@@ -26865,7 +26865,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="513" spans="1:17">
@@ -26906,10 +26906,10 @@
         <v>1</v>
       </c>
       <c r="P513" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q513">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="514" spans="1:17">
@@ -26950,7 +26950,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
